--- a/Level2-Record.xlsx
+++ b/Level2-Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\GitHubBack\KidsStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44B5FAA-03ED-4933-877B-A116714D7E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D90E79E-024B-4639-B408-5771586D8074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Samrat</t>
   </si>
@@ -98,6 +98,51 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -416,206 +461,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>15</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>17</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>20</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>21</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>22</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>27</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>29</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>36</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>38</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>39</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>44</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>45</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
         <v>49</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
